--- a/base de datos/mod_relacional.xlsx
+++ b/base de datos/mod_relacional.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>LIBRO</t>
   </si>
@@ -133,6 +133,30 @@
   </si>
   <si>
     <t>USUARIO(ID)</t>
+  </si>
+  <si>
+    <t>numero pgs.</t>
+  </si>
+  <si>
+    <t>numero edit.</t>
+  </si>
+  <si>
+    <t>desc. Corta</t>
+  </si>
+  <si>
+    <t>pais</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>cuenta</t>
+  </si>
+  <si>
+    <t>telefono</t>
   </si>
 </sst>
 </file>
@@ -499,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B6:K27"/>
+  <dimension ref="B6:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D5" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -512,7 +536,7 @@
     <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:14">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -543,8 +567,17 @@
       <c r="K6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
@@ -552,21 +585,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:14">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:14">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="2:11">
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:14">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -591,11 +630,20 @@
       <c r="I12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="2:11">
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:14">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -606,7 +654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:14">
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -614,7 +662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:14">
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
